--- a/ShoeNiverse/Shoes/Air Jordan 4 'What The'/Air Jordan 4 'What The'.xlsx
+++ b/ShoeNiverse/Shoes/Air Jordan 4 'What The'/Air Jordan 4 'What The'.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman Nijjar\Desktop\Shoes\Air Jordan 4 “What The”\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ShoeNiverse\ShoeNiverse\Shoes\Air Jordan 4 'What The'\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6146419-0606-44C7-A870-36044F512138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9BEE7-D392-4079-8788-FF031A08DA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="1140" windowWidth="17280" windowHeight="9420" xr2:uid="{3A2658C6-DA93-4C66-A466-52085DA0EEEC}"/>
+    <workbookView xWindow="948" yWindow="-108" windowWidth="22200" windowHeight="13176" xr2:uid="{3A2658C6-DA93-4C66-A466-52085DA0EEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="CG13" sqref="C13:CG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,5 +491,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>